--- a/Random_Forest/ModelResults.xlsx
+++ b/Random_Forest/ModelResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\University\Summer 2020\TMG\GitHub_PORPOS\PORPOS-TMG\Random_Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD463C0E-1A3B-4E46-8152-C56505BE154D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6F759-443A-4C40-81CF-6138C349B5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelResults" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,26 +1560,26 @@
         <v>0.27648979978751498</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>0.40849582172701898</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>5.8356545961002697E-2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="2">
         <v>0.14285714285714199</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <v>8.2859596509259295E-2</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="2">
         <v>0.25892782390427799</v>
       </c>
     </row>
@@ -1587,8 +1587,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H27">
     <sortCondition descending="1" ref="H3"/>
   </sortState>
-  <conditionalFormatting sqref="H3:H27">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H3:H26 H28">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
